--- a/data/trans_dic/IP11-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP11-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,98</t>
+          <t>0,79; 7,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,98; 23,1</t>
+          <t>8,38; 21,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,6</t>
+          <t>0,95; 8,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,55</t>
+          <t>0,0; 8,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 8,95</t>
+          <t>2,0; 9,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 9,16</t>
+          <t>1,81; 8,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,53</t>
+          <t>1,04; 9,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,05</t>
+          <t>0,0; 8,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,79</t>
+          <t>1,89; 6,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,87; 13,45</t>
+          <t>6,09; 13,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,47</t>
+          <t>1,87; 7,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,48</t>
+          <t>0,37; 5,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 9,95</t>
+          <t>6,08; 9,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 11,46</t>
+          <t>7,03; 11,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,47</t>
+          <t>4,79; 8,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,36</t>
+          <t>1,82; 4,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 6,87</t>
+          <t>3,54; 7,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,52; 10,57</t>
+          <t>6,38; 10,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,93</t>
+          <t>2,2; 5,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,03</t>
+          <t>1,51; 3,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 7,99</t>
+          <t>5,3; 7,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 10,4</t>
+          <t>7,35; 10,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,21</t>
+          <t>3,95; 6,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,6</t>
+          <t>1,92; 3,65</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,44</t>
+          <t>2,08; 7,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,77</t>
+          <t>5,79; 13,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,68</t>
+          <t>1,8; 6,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,77</t>
+          <t>1,93; 7,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 9,5</t>
+          <t>3,36; 9,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 9,48</t>
+          <t>3,3; 9,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,44</t>
+          <t>1,11; 5,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 6,91</t>
+          <t>1,51; 6,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,14</t>
+          <t>3,52; 7,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 10,24</t>
+          <t>5,54; 10,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,91</t>
+          <t>1,89; 5,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,49</t>
+          <t>2,3; 6,57</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,06</t>
+          <t>4,99; 8,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,6</t>
+          <t>8,06; 11,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,93</t>
+          <t>4,19; 6,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,38</t>
+          <t>2,14; 4,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,63</t>
+          <t>3,99; 6,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,01</t>
+          <t>5,8; 8,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,49</t>
+          <t>2,36; 4,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,94</t>
+          <t>1,73; 3,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 6,81</t>
+          <t>4,98; 6,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 9,73</t>
+          <t>7,37; 9,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 5,38</t>
+          <t>3,57; 5,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,73</t>
+          <t>2,19; 3,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP11-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP11-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,55; 8,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,98; 9,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 9,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 8,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,18; 22,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 8,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 10,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,91; 6,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>5,98; 13,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 7,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,46; 6,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,59</t>
+          <t>3,55; 6,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,38; 21,66</t>
+          <t>6,34; 10,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,52</t>
+          <t>2,34; 5,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,64</t>
+          <t>1,36; 4,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,65</t>
+          <t>6,07; 9,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,83</t>
+          <t>7,11; 11,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 9,42</t>
+          <t>4,88; 8,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,4</t>
+          <t>1,72; 4,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,66</t>
+          <t>5,11; 7,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 13,37</t>
+          <t>7,37; 10,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,75</t>
+          <t>3,87; 6,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,77</t>
+          <t>1,88; 3,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,99</t>
+          <t>3,42; 9,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 11,24</t>
+          <t>3,31; 9,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,44</t>
+          <t>1,06; 4,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,41</t>
+          <t>1,54; 6,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,01</t>
+          <t>2,1; 7,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,55</t>
+          <t>6,11; 13,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,12</t>
+          <t>1,76; 6,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,94</t>
+          <t>2,17; 8,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 7,92</t>
+          <t>3,35; 7,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 10,46</t>
+          <t>5,53; 10,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,23</t>
+          <t>1,92; 4,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,65</t>
+          <t>2,25; 6,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>5,83%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,82%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,58%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,37%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,09%</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 7,5</t>
+          <t>3,85; 6,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 13,6</t>
+          <t>5,81; 8,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,31</t>
+          <t>2,3; 4,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,58</t>
+          <t>1,68; 3,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,13</t>
+          <t>5,07; 8,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,17</t>
+          <t>7,97; 11,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,33</t>
+          <t>4,12; 7,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 6,83</t>
+          <t>2,14; 4,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,25</t>
+          <t>4,85; 6,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 10,29</t>
+          <t>7,34; 9,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,02</t>
+          <t>3,64; 5,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,57</t>
+          <t>2,16; 3,8</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,44%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,77%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,48%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,27%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,63%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>8,56%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>4,43%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4,99; 8,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8,06; 11,75</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,19; 6,9</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,14; 4,56</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3,99; 6,74</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,8; 8,85</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 4,6</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 3,84</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>4,98; 6,92</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>7,37; 9,84</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 5,36</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 3,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
